--- a/EC/Train Runs and Enforcements 2016-07-30.xlsx
+++ b/EC/Train Runs and Enforcements 2016-07-30.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2939" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2937" uniqueCount="940">
   <si>
     <t>Train ID</t>
   </si>
@@ -2879,6 +2879,9 @@
   </si>
   <si>
     <t>Did not make it into initial TMDS load</t>
+  </si>
+  <si>
+    <t>Wi-MAX outage prevented init</t>
   </si>
 </sst>
 </file>
@@ -3538,7 +3541,55 @@
     <cellStyle name="Normal_XINGS" xfId="1"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -3900,9 +3951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:CM282"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
@@ -4602,7 +4654,7 @@
       <c r="CL12" s="4"/>
       <c r="CM12" s="4"/>
     </row>
-    <row r="13" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>414</v>
       </c>
@@ -4715,7 +4767,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="14" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>416</v>
       </c>
@@ -4827,7 +4879,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="15" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>419</v>
       </c>
@@ -4939,7 +4991,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="16" spans="1:91" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>421</v>
       </c>
@@ -5051,7 +5103,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="17" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>424</v>
       </c>
@@ -5163,7 +5215,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="18" spans="1:33" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" s="1" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>426</v>
       </c>
@@ -5275,7 +5327,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="19" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>427</v>
       </c>
@@ -5387,7 +5439,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="20" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>429</v>
       </c>
@@ -5499,7 +5551,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="21" spans="1:33" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" s="35" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
         <v>431</v>
       </c>
@@ -5611,7 +5663,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="22" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>432</v>
       </c>
@@ -5723,7 +5775,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="23" spans="1:33" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" s="1" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>433</v>
       </c>
@@ -5835,7 +5887,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="24" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>434</v>
       </c>
@@ -5947,7 +5999,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="25" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>435</v>
       </c>
@@ -6059,7 +6111,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="26" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>437</v>
       </c>
@@ -6171,7 +6223,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="27" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45" t="s">
         <v>439</v>
       </c>
@@ -6283,7 +6335,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="28" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>440</v>
       </c>
@@ -6395,7 +6447,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="29" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
         <v>441</v>
       </c>
@@ -6507,7 +6559,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="30" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>443</v>
       </c>
@@ -6619,7 +6671,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="31" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>444</v>
       </c>
@@ -6731,7 +6783,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>445</v>
       </c>
@@ -6843,7 +6895,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="33" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45" t="s">
         <v>446</v>
       </c>
@@ -6955,7 +7007,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45" t="s">
         <v>448</v>
       </c>
@@ -7067,7 +7119,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="35" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45" t="s">
         <v>451</v>
       </c>
@@ -7179,7 +7231,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="36" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45" t="s">
         <v>452</v>
       </c>
@@ -7291,7 +7343,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="37" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45" t="s">
         <v>453</v>
       </c>
@@ -7403,7 +7455,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="38" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
         <v>454</v>
       </c>
@@ -7515,7 +7567,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="39" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45" t="s">
         <v>455</v>
       </c>
@@ -7627,7 +7679,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="40" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45" t="s">
         <v>457</v>
       </c>
@@ -7739,7 +7791,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="41" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45" t="s">
         <v>458</v>
       </c>
@@ -7851,7 +7903,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="42" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
         <v>460</v>
       </c>
@@ -7963,7 +8015,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="43" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
         <v>461</v>
       </c>
@@ -8075,7 +8127,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="44" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>738</v>
       </c>
@@ -8187,7 +8239,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="45" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
         <v>462</v>
       </c>
@@ -8299,7 +8351,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="46" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
         <v>817</v>
       </c>
@@ -8411,7 +8463,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="47" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
         <v>463</v>
       </c>
@@ -8523,7 +8575,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="48" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
         <v>781</v>
       </c>
@@ -8635,7 +8687,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="49" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
         <v>464</v>
       </c>
@@ -8747,7 +8799,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="50" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
         <v>731</v>
       </c>
@@ -8859,7 +8911,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="51" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
         <v>751</v>
       </c>
@@ -8971,7 +9023,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
         <v>780</v>
       </c>
@@ -9083,7 +9135,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>828</v>
       </c>
@@ -9195,7 +9247,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="54" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>820</v>
       </c>
@@ -9338,11 +9390,13 @@
       <c r="J55" s="127" t="s">
         <v>935</v>
       </c>
-      <c r="K55" s="127" t="s">
-        <v>935</v>
-      </c>
-      <c r="L55" s="127" t="s">
-        <v>935</v>
+      <c r="K55" s="123" t="str">
+        <f t="shared" si="0"/>
+        <v>4017/4018</v>
+      </c>
+      <c r="L55" s="25" t="e">
+        <f>VLOOKUP(A55,'Trips&amp;Operators'!$C$1:$E$10000,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="M55" s="127" t="s">
         <v>935</v>
@@ -9354,7 +9408,7 @@
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="26" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="S55" s="41">
         <f t="shared" ref="S55" si="15">SUM(U55:U55)/IF(AG55="EC",12,1)</f>
@@ -9418,7 +9472,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>715</v>
       </c>
@@ -9644,7 +9698,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>741</v>
       </c>
@@ -9756,7 +9810,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>740</v>
       </c>
@@ -9868,7 +9922,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>791</v>
       </c>
@@ -9980,7 +10034,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>826</v>
       </c>
@@ -10092,7 +10146,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>722</v>
       </c>
@@ -10204,7 +10258,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>767</v>
       </c>
@@ -10316,7 +10370,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
         <v>818</v>
       </c>
@@ -10428,7 +10482,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>721</v>
       </c>
@@ -10540,7 +10594,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>753</v>
       </c>
@@ -10652,7 +10706,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>802</v>
       </c>
@@ -10764,7 +10818,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="68" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>786</v>
       </c>
@@ -10876,7 +10930,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>732</v>
       </c>
@@ -10988,7 +11042,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="70" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>769</v>
       </c>
@@ -11100,7 +11154,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>809</v>
       </c>
@@ -11212,7 +11266,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
         <v>770</v>
       </c>
@@ -11324,7 +11378,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
         <v>784</v>
       </c>
@@ -11436,7 +11490,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>777</v>
       </c>
@@ -11548,7 +11602,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>793</v>
       </c>
@@ -11660,7 +11714,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>808</v>
       </c>
@@ -11772,7 +11826,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>788</v>
       </c>
@@ -11885,7 +11939,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>819</v>
       </c>
@@ -11997,7 +12051,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>765</v>
       </c>
@@ -12109,7 +12163,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>800</v>
       </c>
@@ -12221,7 +12275,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
         <v>827</v>
       </c>
@@ -12333,7 +12387,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>804</v>
       </c>
@@ -12445,7 +12499,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>756</v>
       </c>
@@ -12557,7 +12611,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>775</v>
       </c>
@@ -12669,7 +12723,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>815</v>
       </c>
@@ -12781,7 +12835,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>789</v>
       </c>
@@ -12893,7 +12947,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>743</v>
       </c>
@@ -13005,7 +13059,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>814</v>
       </c>
@@ -13117,7 +13171,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>807</v>
       </c>
@@ -13229,7 +13283,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>746</v>
       </c>
@@ -13341,7 +13395,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>748</v>
       </c>
@@ -13453,7 +13507,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>799</v>
       </c>
@@ -13565,7 +13619,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>821</v>
       </c>
@@ -13677,7 +13731,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45" t="s">
         <v>757</v>
       </c>
@@ -13789,7 +13843,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>727</v>
       </c>
@@ -13901,7 +13955,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45" t="s">
         <v>717</v>
       </c>
@@ -14013,7 +14067,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45" t="s">
         <v>744</v>
       </c>
@@ -14125,7 +14179,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45" t="s">
         <v>806</v>
       </c>
@@ -14237,7 +14291,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45" t="s">
         <v>728</v>
       </c>
@@ -14349,7 +14403,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45" t="s">
         <v>730</v>
       </c>
@@ -14461,7 +14515,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
         <v>805</v>
       </c>
@@ -14573,7 +14627,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>747</v>
       </c>
@@ -14685,7 +14739,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>797</v>
       </c>
@@ -14797,7 +14851,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>609</v>
       </c>
@@ -14909,7 +14963,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>813</v>
       </c>
@@ -15021,7 +15075,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>610</v>
       </c>
@@ -15133,7 +15187,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>774</v>
       </c>
@@ -15245,7 +15299,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>611</v>
       </c>
@@ -15357,7 +15411,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>612</v>
       </c>
@@ -15469,7 +15523,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>614</v>
       </c>
@@ -15581,7 +15635,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>615</v>
       </c>
@@ -15693,7 +15747,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>617</v>
       </c>
@@ -15805,7 +15859,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>637</v>
       </c>
@@ -15917,7 +15971,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>639</v>
       </c>
@@ -16029,7 +16083,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>641</v>
       </c>
@@ -16141,7 +16195,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
         <v>643</v>
       </c>
@@ -16253,7 +16307,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="117" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
         <v>644</v>
       </c>
@@ -16365,7 +16419,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
         <v>645</v>
       </c>
@@ -16477,7 +16531,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
         <v>647</v>
       </c>
@@ -16589,7 +16643,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="120" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
         <v>648</v>
       </c>
@@ -16701,7 +16755,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="121" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
         <v>650</v>
       </c>
@@ -16813,7 +16867,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="122" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
         <v>651</v>
       </c>
@@ -16925,7 +16979,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="123" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="25" t="s">
         <v>652</v>
       </c>
@@ -17037,7 +17091,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="124" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="25" t="s">
         <v>653</v>
       </c>
@@ -17149,7 +17203,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="25" t="s">
         <v>655</v>
       </c>
@@ -17261,7 +17315,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="126" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>656</v>
       </c>
@@ -17373,7 +17427,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="127" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
         <v>657</v>
       </c>
@@ -17485,7 +17539,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="128" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
         <v>658</v>
       </c>
@@ -17597,7 +17651,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="129" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
         <v>659</v>
       </c>
@@ -17709,7 +17763,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="130" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>660</v>
       </c>
@@ -17821,7 +17875,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="131" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
         <v>661</v>
       </c>
@@ -17933,7 +17987,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="132" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
         <v>664</v>
       </c>
@@ -18045,7 +18099,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="133" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="25" t="s">
         <v>666</v>
       </c>
@@ -18157,7 +18211,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="134" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="25" t="s">
         <v>667</v>
       </c>
@@ -18269,7 +18323,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="135" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25" t="s">
         <v>669</v>
       </c>
@@ -18381,7 +18435,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="136" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
         <v>670</v>
       </c>
@@ -18493,7 +18547,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="137" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="25" t="s">
         <v>671</v>
       </c>
@@ -18605,7 +18659,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="138" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="25" t="s">
         <v>672</v>
       </c>
@@ -18717,7 +18771,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="139" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="25" t="s">
         <v>673</v>
       </c>
@@ -18829,7 +18883,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="140" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="25" t="s">
         <v>675</v>
       </c>
@@ -18941,7 +18995,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="25" t="s">
         <v>678</v>
       </c>
@@ -19054,7 +19108,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="25" t="s">
         <v>679</v>
       </c>
@@ -19166,7 +19220,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="25" t="s">
         <v>681</v>
       </c>
@@ -19278,7 +19332,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="25" t="s">
         <v>683</v>
       </c>
@@ -19390,7 +19444,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
         <v>685</v>
       </c>
@@ -19502,7 +19556,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="25" t="s">
         <v>686</v>
       </c>
@@ -19614,7 +19668,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="25" t="s">
         <v>687</v>
       </c>
@@ -19726,7 +19780,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="25" t="s">
         <v>689</v>
       </c>
@@ -19838,7 +19892,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="25" t="s">
         <v>691</v>
       </c>
@@ -19950,7 +20004,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="25" t="s">
         <v>692</v>
       </c>
@@ -20062,7 +20116,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="25" t="s">
         <v>694</v>
       </c>
@@ -20174,7 +20228,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="25" t="s">
         <v>695</v>
       </c>
@@ -20286,7 +20340,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="25" t="s">
         <v>696</v>
       </c>
@@ -20398,7 +20452,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
         <v>697</v>
       </c>
@@ -20510,7 +20564,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="25" t="s">
         <v>698</v>
       </c>
@@ -20622,7 +20676,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="25" t="s">
         <v>700</v>
       </c>
@@ -20734,7 +20788,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="25" t="s">
         <v>702</v>
       </c>
@@ -20846,7 +20900,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
         <v>703</v>
       </c>
@@ -20958,7 +21012,7 @@
         <v>EC</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="25" t="s">
         <v>704</v>
       </c>
@@ -21070,7 +21124,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="25" t="s">
         <v>706</v>
       </c>
@@ -21182,7 +21236,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="25" t="s">
         <v>707</v>
       </c>
@@ -21294,7 +21348,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>709</v>
       </c>
@@ -21406,7 +21460,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="25" t="s">
         <v>711</v>
       </c>
@@ -21518,7 +21572,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="25" t="s">
         <v>619</v>
       </c>
@@ -21631,7 +21685,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="25" t="s">
         <v>620</v>
       </c>
@@ -21743,7 +21797,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="25" t="s">
         <v>620</v>
       </c>
@@ -21855,7 +21909,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="25" t="s">
         <v>624</v>
       </c>
@@ -21967,7 +22021,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="25" t="s">
         <v>626</v>
       </c>
@@ -22079,7 +22133,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="25" t="s">
         <v>629</v>
       </c>
@@ -22191,7 +22245,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="25" t="s">
         <v>632</v>
       </c>
@@ -22303,7 +22357,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
         <v>632</v>
       </c>
@@ -22415,7 +22469,7 @@
         <v>GL</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="25" t="s">
         <v>465</v>
       </c>
@@ -22527,7 +22581,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="25" t="s">
         <v>467</v>
       </c>
@@ -22639,7 +22693,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="25" t="s">
         <v>469</v>
       </c>
@@ -22751,7 +22805,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="25" t="s">
         <v>471</v>
       </c>
@@ -22863,7 +22917,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="25" t="s">
         <v>474</v>
       </c>
@@ -22975,7 +23029,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="s">
         <v>477</v>
       </c>
@@ -23087,7 +23141,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="s">
         <v>480</v>
       </c>
@@ -23199,7 +23253,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="s">
         <v>483</v>
       </c>
@@ -23311,7 +23365,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
         <v>485</v>
       </c>
@@ -23423,7 +23477,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="s">
         <v>487</v>
       </c>
@@ -23535,7 +23589,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="s">
         <v>489</v>
       </c>
@@ -23647,7 +23701,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="s">
         <v>490</v>
       </c>
@@ -23759,7 +23813,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45" t="s">
         <v>492</v>
       </c>
@@ -23871,7 +23925,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="45" t="s">
         <v>495</v>
       </c>
@@ -23983,7 +24037,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="45" t="s">
         <v>496</v>
       </c>
@@ -24095,7 +24149,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="45" t="s">
         <v>498</v>
       </c>
@@ -24207,7 +24261,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
         <v>499</v>
       </c>
@@ -24433,7 +24487,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="45" t="s">
         <v>505</v>
       </c>
@@ -24545,7 +24599,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="45" t="s">
         <v>787</v>
       </c>
@@ -24657,7 +24711,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="45" t="s">
         <v>736</v>
       </c>
@@ -24769,7 +24823,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="45" t="s">
         <v>725</v>
       </c>
@@ -24881,7 +24935,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="45" t="s">
         <v>785</v>
       </c>
@@ -25107,7 +25161,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="45" t="s">
         <v>766</v>
       </c>
@@ -25219,7 +25273,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="45" t="s">
         <v>779</v>
       </c>
@@ -25331,7 +25385,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45" t="s">
         <v>713</v>
       </c>
@@ -25443,7 +25497,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="45" t="s">
         <v>778</v>
       </c>
@@ -25555,7 +25609,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="45" t="s">
         <v>734</v>
       </c>
@@ -25667,7 +25721,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="45" t="s">
         <v>768</v>
       </c>
@@ -25779,7 +25833,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="45" t="s">
         <v>742</v>
       </c>
@@ -25891,7 +25945,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="45" t="s">
         <v>812</v>
       </c>
@@ -26003,7 +26057,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="45" t="s">
         <v>752</v>
       </c>
@@ -26115,7 +26169,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="45" t="s">
         <v>824</v>
       </c>
@@ -26227,7 +26281,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="45" t="s">
         <v>825</v>
       </c>
@@ -26339,7 +26393,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="45" t="s">
         <v>832</v>
       </c>
@@ -26451,7 +26505,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="45" t="s">
         <v>816</v>
       </c>
@@ -26563,7 +26617,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="45" t="s">
         <v>754</v>
       </c>
@@ -26675,7 +26729,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="45" t="s">
         <v>803</v>
       </c>
@@ -26787,7 +26841,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="45" t="s">
         <v>755</v>
       </c>
@@ -26899,7 +26953,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45" t="s">
         <v>792</v>
       </c>
@@ -27012,7 +27066,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="45" t="s">
         <v>763</v>
       </c>
@@ -27124,7 +27178,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="45" t="s">
         <v>811</v>
       </c>
@@ -27236,7 +27290,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="45" t="s">
         <v>761</v>
       </c>
@@ -27348,7 +27402,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="45" t="s">
         <v>723</v>
       </c>
@@ -27460,7 +27514,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="45" t="s">
         <v>726</v>
       </c>
@@ -27572,7 +27626,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="45" t="s">
         <v>749</v>
       </c>
@@ -27684,7 +27738,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="45" t="s">
         <v>735</v>
       </c>
@@ -27796,7 +27850,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="45" t="s">
         <v>733</v>
       </c>
@@ -28022,7 +28076,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="45" t="s">
         <v>758</v>
       </c>
@@ -28134,7 +28188,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="45" t="s">
         <v>760</v>
       </c>
@@ -28246,7 +28300,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="45" t="s">
         <v>759</v>
       </c>
@@ -28358,7 +28412,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="45" t="s">
         <v>737</v>
       </c>
@@ -28470,7 +28524,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45" t="s">
         <v>716</v>
       </c>
@@ -28582,7 +28636,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>762</v>
       </c>
@@ -28694,7 +28748,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="45" t="s">
         <v>798</v>
       </c>
@@ -28806,7 +28860,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="45" t="s">
         <v>764</v>
       </c>
@@ -28918,7 +28972,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="45" t="s">
         <v>772</v>
       </c>
@@ -29030,7 +29084,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="45" t="s">
         <v>745</v>
       </c>
@@ -29142,7 +29196,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="45" t="s">
         <v>822</v>
       </c>
@@ -29254,7 +29308,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="45" t="s">
         <v>507</v>
       </c>
@@ -29366,7 +29420,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="45" t="s">
         <v>823</v>
       </c>
@@ -29478,7 +29532,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="45" t="s">
         <v>509</v>
       </c>
@@ -29590,7 +29644,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
         <v>512</v>
       </c>
@@ -29701,7 +29755,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="45" t="s">
         <v>514</v>
       </c>
@@ -29813,7 +29867,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="45" t="s">
         <v>517</v>
       </c>
@@ -29925,7 +29979,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="45" t="s">
         <v>519</v>
       </c>
@@ -30037,7 +30091,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="45" t="s">
         <v>522</v>
       </c>
@@ -30149,7 +30203,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="45" t="s">
         <v>524</v>
       </c>
@@ -30261,7 +30315,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="45" t="s">
         <v>527</v>
       </c>
@@ -30373,7 +30427,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="45" t="s">
         <v>529</v>
       </c>
@@ -30485,7 +30539,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="45" t="s">
         <v>532</v>
       </c>
@@ -30597,7 +30651,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="45" t="s">
         <v>534</v>
       </c>
@@ -30709,7 +30763,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="45" t="s">
         <v>536</v>
       </c>
@@ -30821,7 +30875,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="45" t="s">
         <v>538</v>
       </c>
@@ -30933,7 +30987,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="45" t="s">
         <v>540</v>
       </c>
@@ -31045,7 +31099,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="45" t="s">
         <v>543</v>
       </c>
@@ -31157,7 +31211,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="45" t="s">
         <v>545</v>
       </c>
@@ -31269,7 +31323,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="45" t="s">
         <v>548</v>
       </c>
@@ -31381,7 +31435,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="45" t="s">
         <v>551</v>
       </c>
@@ -31493,7 +31547,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="45" t="s">
         <v>552</v>
       </c>
@@ -31605,7 +31659,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="45" t="s">
         <v>555</v>
       </c>
@@ -31717,7 +31771,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>557</v>
       </c>
@@ -31829,7 +31883,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="45" t="s">
         <v>560</v>
       </c>
@@ -31941,7 +31995,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="45" t="s">
         <v>562</v>
       </c>
@@ -32053,7 +32107,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="45" t="s">
         <v>565</v>
       </c>
@@ -32165,7 +32219,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="45" t="s">
         <v>567</v>
       </c>
@@ -32277,7 +32331,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="45" t="s">
         <v>569</v>
       </c>
@@ -32389,7 +32443,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="45" t="s">
         <v>572</v>
       </c>
@@ -32501,7 +32555,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="45" t="s">
         <v>574</v>
       </c>
@@ -32613,7 +32667,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="45" t="s">
         <v>576</v>
       </c>
@@ -32725,7 +32779,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="45" t="s">
         <v>578</v>
       </c>
@@ -32837,7 +32891,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="45" t="s">
         <v>580</v>
       </c>
@@ -32949,7 +33003,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="45" t="s">
         <v>582</v>
       </c>
@@ -33061,7 +33115,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="45" t="s">
         <v>584</v>
       </c>
@@ -33171,7 +33225,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="45" t="s">
         <v>586</v>
       </c>
@@ -33283,7 +33337,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="45" t="s">
         <v>589</v>
       </c>
@@ -33395,7 +33449,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="270" spans="1:33" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:33" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="45" t="s">
         <v>829</v>
       </c>
@@ -33506,7 +33560,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="45" t="s">
         <v>592</v>
       </c>
@@ -33618,7 +33672,7 @@
         <v>NW</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="45" t="s">
         <v>594</v>
       </c>
@@ -33729,7 +33783,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="45" t="s">
         <v>595</v>
       </c>
@@ -33840,7 +33894,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="45" t="s">
         <v>597</v>
       </c>
@@ -33952,7 +34006,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="45" t="s">
         <v>599</v>
       </c>
@@ -34063,7 +34117,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="45" t="s">
         <v>601</v>
       </c>
@@ -34174,7 +34228,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="45" t="s">
         <v>602</v>
       </c>
@@ -34285,7 +34339,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="45" t="s">
         <v>603</v>
       </c>
@@ -34396,7 +34450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="45" t="s">
         <v>604</v>
       </c>
@@ -34507,7 +34561,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="45" t="s">
         <v>605</v>
       </c>
@@ -34618,7 +34672,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="45" t="s">
         <v>607</v>
       </c>
@@ -34729,7 +34783,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:33" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="45" t="s">
         <v>608</v>
       </c>
@@ -34841,7 +34895,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A12:AG282"/>
+  <autoFilter ref="A12:AG282">
+    <filterColumn colId="17">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A13:AC160">
     <sortCondition ref="A13:A160"/>
     <sortCondition ref="F13:F160"/>
@@ -34850,27 +34910,27 @@
     <mergeCell ref="A11:P11"/>
   </mergeCells>
   <conditionalFormatting sqref="W11:W12 W13:X1048576">
-    <cfRule type="cellIs" dxfId="8" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="76" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X13:X1048576">
-    <cfRule type="cellIs" dxfId="7" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="59" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12:X1048576">
-    <cfRule type="cellIs" dxfId="6" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:S171 A172:S282 A13:S163">
-    <cfRule type="expression" dxfId="5" priority="52">
+    <cfRule type="expression" dxfId="11" priority="52">
       <formula>$O13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K164:S171 A172:S282 A13:S163">
-    <cfRule type="expression" dxfId="4" priority="51">
+    <cfRule type="expression" dxfId="10" priority="51">
       <formula>$P13&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39502,17 +39562,17 @@
     <mergeCell ref="A5:M5"/>
   </mergeCells>
   <conditionalFormatting sqref="M6:N6 P6 M7:M1048576">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:N67">
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$M7="Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39525,7 +39585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
